--- a/reference/sales_report/BUDGET_EXIM_2022.xlsx
+++ b/reference/sales_report/BUDGET_EXIM_2022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MAGANG\Program LINC\linc-report\reference\sales_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SERVER_WEBAPP\linc-report\reference\sales_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B03B3B-A7E3-4C96-A3B1-A74180E06C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{618BAF7A-42DB-464D-A952-AA174D3E268B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -403,9 +402,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -449,15 +448,15 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{A0858D52-7C8B-42A1-B629-268A99D524FF}"/>
+    <cellStyle name="Comma [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 128 4 8" xfId="1" xr:uid="{75DB7A4E-95D2-46C8-B43C-08D6FF0655D3}"/>
+    <cellStyle name="Normal 128 4 8" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958083C-326B-4757-986E-41D02B3B7F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,14 +2717,26 @@
       <c r="H37">
         <v>20000000</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>15000000</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>15000000</v>
       </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
       <c r="N37">
         <v>15000000</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
       </c>
       <c r="P37">
         <v>20000000</v>
@@ -5015,7 +5026,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>

--- a/reference/sales_report/BUDGET_EXIM_2022.xlsx
+++ b/reference/sales_report/BUDGET_EXIM_2022.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,7 +5565,7 @@
         <v>112</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>3000021121</v>
       </c>
       <c r="E91" t="s">
         <v>121</v>

--- a/reference/sales_report/BUDGET_EXIM_2022.xlsx
+++ b/reference/sales_report/BUDGET_EXIM_2022.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
